--- a/SHFM scores.xlsx
+++ b/SHFM scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\shfm-location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E23F72-CEDD-4307-AA87-430B449861BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06EE0D7-1823-4419-968A-D2952AFB352F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8CBC3B2D-19D5-AC46-B09D-01DAC0AE99B1}"/>
+    <workbookView xWindow="8595" yWindow="510" windowWidth="19170" windowHeight="15000" activeTab="2" xr2:uid="{8CBC3B2D-19D5-AC46-B09D-01DAC0AE99B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1282,37 +1282,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -40330,10 +40318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9801FB92-54B5-7646-86CB-A3D8E837316F}">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40346,7 +40334,7 @@
     <col min="8" max="16384" width="11.125" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -40356,4401 +40344,3663 @@
       <c r="C1" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="74" t="s">
         <v>235</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="73">
         <v>13</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="75">
         <v>3.6412612794524013E-2</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="82" t="str">
+      <c r="D2" s="76" t="str">
         <f>LEFT(C2,1)</f>
         <v>K</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="81" cm="1">
-        <f t="array" ref="G2">MEDIAN(IF(D:D=F2,B:B))</f>
+      <c r="G2" s="75" cm="1">
+        <f t="array" ref="G2">MEDIAN(IF($D:$D=$F2,$B:$B))</f>
         <v>3.998436805593264E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="73">
         <v>74</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="75">
         <v>3.0440077496089568E-2</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="82" t="str">
+      <c r="D3" s="76" t="str">
         <f t="shared" ref="D3:D66" si="0">LEFT(C3,1)</f>
         <v>K</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="81" cm="1">
-        <f t="array" ref="G3">MEDIAN(IF(D:D=F3,B:B))</f>
+      <c r="G3" s="75" cm="1">
+        <f t="array" ref="G3">MEDIAN(IF($D:$D=$F3,$B:$B))</f>
         <v>4.0674285616653538E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="80">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
         <v>134</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="75">
         <v>0.65350606175789627</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="82" t="str">
+      <c r="D4" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="81" cm="1">
-        <f t="array" ref="G4">MEDIAN(IF(D:D=F4,B:B))</f>
+      <c r="G4" s="75" cm="1">
+        <f t="array" ref="G4">MEDIAN(IF($D:$D=$F4,$B:$B))</f>
         <v>4.0441393755326849E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="80">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="73">
         <v>148</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="75">
         <v>4.2958496789580636E-2</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="82" t="str">
+      <c r="D5" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="81" cm="1">
-        <f t="array" ref="G5">MEDIAN(IF(D:D=F5,B:B))</f>
+      <c r="G5" s="75" cm="1">
+        <f t="array" ref="G5">MEDIAN(IF($D:$D=$F5,$B:$B))</f>
         <v>6.5474206254240053E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
         <v>158</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="75">
         <v>3.7010239322284644E-2</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="82" t="str">
+      <c r="D6" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="81" cm="1">
-        <f t="array" ref="G6">MEDIAN(IF(D:D=F6,B:B))</f>
+      <c r="G6" s="75" cm="1">
+        <f t="array" ref="G6">MEDIAN(IF($D:$D=$F6,$B:$B))</f>
         <v>7.6744621905816879E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
         <v>175</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="75">
         <v>1.3549376481995612E-2</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="82" t="str">
+      <c r="D7" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="73">
         <v>189</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="75">
         <v>6.9462224944184303E-2</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="82" t="str">
+      <c r="D8" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="81"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="73">
         <v>220</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="75">
         <v>2.5739130786197051E-2</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="82" t="str">
+      <c r="D9" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="81"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="73">
         <v>94</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="75">
         <v>1.3699337749839002E-2</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="82" t="str">
+      <c r="D10" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="81"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="73">
         <v>241</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="75">
         <v>5.4064505233577531E-2</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="82" t="str">
+      <c r="D11" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="80">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="73">
         <v>230</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="75">
         <v>5.2567359224198418E-2</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="82" t="str">
+      <c r="D12" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="81"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="73">
         <v>236</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="75">
         <v>0.15751084304167462</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="82" t="str">
+      <c r="D13" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="81"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
         <v>140</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="75">
         <v>4.9018394774257623E-2</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="82" t="str">
+      <c r="D14" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="81"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
         <v>51</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="75">
         <v>3.0906467565488316E-2</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="82" t="str">
+      <c r="D15" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="81"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
         <v>83</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="75">
         <v>0.27450903774585445</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="82" t="str">
+      <c r="D16" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="81"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="80">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
         <v>219</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="75">
         <v>4.8698000052580737E-2</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="82" t="str">
+      <c r="D17" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="81"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="75">
         <v>0.11537152151806296</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="82" t="str">
+      <c r="D18" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="81"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
         <v>150</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="75">
         <v>2.2644966173293812E-2</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="82" t="str">
+      <c r="D19" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="81"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="80">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
         <v>234</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="75">
         <v>5.5264357026540978E-2</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="82" t="str">
+      <c r="D20" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="81"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="80">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
         <v>220</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="75">
         <v>2.4646245208228224E-2</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="82" t="str">
+      <c r="D21" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="81"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="80">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="73">
         <v>186</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="75">
         <v>3.2208259428991637E-2</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="82" t="str">
+      <c r="D22" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="81"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="80">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
         <v>19</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="75">
         <v>2.235746282567086E-2</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="82" t="str">
+      <c r="D23" s="76" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="81"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="80">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="73">
         <v>6</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="75">
         <v>2.5167683960568898E-2</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="82" t="str">
+      <c r="D24" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="81"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="80">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="73">
         <v>8</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="75">
         <v>2.2678537625179684E-2</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="82" t="str">
+      <c r="D25" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="81"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="80">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="73">
         <v>202</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="75">
         <v>2.5437584552452819E-2</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="82" t="str">
+      <c r="D26" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="81"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="80">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
         <v>2</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="75">
         <v>2.2335762553331584E-2</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="82" t="str">
+      <c r="D27" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="81"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="73">
         <v>40</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="75">
         <v>6.6186664729427247E-2</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="82" t="str">
+      <c r="D28" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="81"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="80">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="73">
         <v>183</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="75">
         <v>8.2422661800958363E-2</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="82" t="str">
+      <c r="D29" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="81"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="80">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="73">
         <v>73</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="75">
         <v>7.2855109321784406E-3</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="82" t="str">
+      <c r="D30" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="81"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="80">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
         <v>216</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="75">
         <v>2.8136653772670384E-2</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="82" t="str">
+      <c r="D31" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="81"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="80">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="73">
         <v>162</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="75">
         <v>0.14169348537508697</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="82" t="str">
+      <c r="D32" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="81"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="80">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="73">
         <v>76</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="75">
         <v>2.9747425904658176E-3</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="82" t="str">
+      <c r="D33" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="81"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="80">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="73">
         <v>35</v>
       </c>
-      <c r="B34" s="81">
+      <c r="B34" s="75">
         <v>3.8085160243613081E-2</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="82" t="str">
+      <c r="D34" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="81"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="80">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="73">
         <v>88</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="75">
         <v>7.8394961804864383E-2</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="82" t="str">
+      <c r="D35" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="81"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="80">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="73">
         <v>69</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="75">
         <v>0.12091112162094275</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="82" t="str">
+      <c r="D36" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="81"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="80">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="73">
         <v>188</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="75">
         <v>0.21455924684874594</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="82" t="str">
+      <c r="D37" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="81"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="80">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="73">
         <v>61</v>
       </c>
-      <c r="B38" s="81">
+      <c r="B38" s="75">
         <v>3.4999041460180624E-2</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="82" t="str">
+      <c r="D38" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="81"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="80">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="73">
         <v>75</v>
       </c>
-      <c r="B39" s="81">
+      <c r="B39" s="75">
         <v>8.4178976563271335E-2</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="82" t="str">
+      <c r="D39" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="81"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="80">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="73">
         <v>184</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="75">
         <v>6.7583799287615598E-2</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="82" t="str">
+      <c r="D40" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="81"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="80">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="73">
         <v>3</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="75">
         <v>0.19407309367249026</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="82" t="str">
+      <c r="D41" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="81"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="80">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="73">
         <v>67</v>
       </c>
-      <c r="B42" s="81">
+      <c r="B42" s="75">
         <v>0.10043867594260913</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="82" t="str">
+      <c r="D42" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="81"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="80">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="73">
         <v>228</v>
       </c>
-      <c r="B43" s="81">
+      <c r="B43" s="75">
         <v>0.26840804133712615</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="82" t="str">
+      <c r="D43" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="81"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="80">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="73">
         <v>96</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="75">
         <v>0.1734678491844186</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="82" t="str">
+      <c r="D44" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="81"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="80">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="73">
         <v>136</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="75">
         <v>2.404974509827762E-2</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="82" t="str">
+      <c r="D45" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="81"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="80">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="73">
         <v>163</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="75">
         <v>0.27108938779783698</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="82" t="str">
+      <c r="D46" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="81"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="80">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="73">
         <v>92</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="75">
         <v>1.4179732419637214E-2</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="82" t="str">
+      <c r="D47" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="81"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="80">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="73">
         <v>98</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="75">
         <v>5.0865467028566647E-2</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="82" t="str">
+      <c r="D48" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="81"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="80">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
         <v>32</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="75">
         <v>0.45572206293455808</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="82" t="str">
+      <c r="D49" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="81"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="80">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="73">
         <v>57</v>
       </c>
-      <c r="B50" s="81">
+      <c r="B50" s="75">
         <v>3.7230911831377389E-2</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="82" t="str">
+      <c r="D50" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="81"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="80">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="73">
         <v>101</v>
       </c>
-      <c r="B51" s="81">
+      <c r="B51" s="75">
         <v>5.714866251081252E-2</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="82" t="str">
+      <c r="D51" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="81"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="80">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="73">
         <v>47</v>
       </c>
-      <c r="B52" s="81">
+      <c r="B52" s="75">
         <v>1.4108183666397656E-2</v>
       </c>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="82" t="str">
+      <c r="D52" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="81"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="80">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
         <v>231</v>
       </c>
-      <c r="B53" s="81">
+      <c r="B53" s="75">
         <v>2.037377094726045E-2</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="82" t="str">
+      <c r="D53" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="81"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="80">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
         <v>212</v>
       </c>
-      <c r="B54" s="81">
+      <c r="B54" s="75">
         <v>3.4490811988851844E-2</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="82" t="str">
+      <c r="D54" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="81"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="81">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="75">
         <v>2.59633947190272E-2</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="82" t="str">
+      <c r="D55" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="81"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="80">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="73">
         <v>224</v>
       </c>
-      <c r="B56" s="81">
+      <c r="B56" s="75">
         <v>4.9122957664311628E-2</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="82" t="str">
+      <c r="D56" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="81"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="80">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
         <v>41</v>
       </c>
-      <c r="B57" s="81">
+      <c r="B57" s="75">
         <v>5.5403296816496805E-2</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="82" t="str">
+      <c r="D57" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="81"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="80">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="73">
         <v>46</v>
       </c>
-      <c r="B58" s="81">
+      <c r="B58" s="75">
         <v>6.3731127784362962E-2</v>
       </c>
-      <c r="C58" s="80" t="s">
+      <c r="C58" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="82" t="str">
+      <c r="D58" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="81"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="80">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="73">
         <v>240</v>
       </c>
-      <c r="B59" s="81">
+      <c r="B59" s="75">
         <v>6.521940639722601E-2</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="82" t="str">
+      <c r="D59" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="81"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="80">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="73">
         <v>201</v>
       </c>
-      <c r="B60" s="81">
+      <c r="B60" s="75">
         <v>6.1073932343346016E-2</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="82" t="str">
+      <c r="D60" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="81"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="80">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="73">
         <v>56</v>
       </c>
-      <c r="B61" s="81">
+      <c r="B61" s="75">
         <v>5.1718024557265707E-3</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="82" t="str">
+      <c r="D61" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="81"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="80">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="73">
         <v>229</v>
       </c>
-      <c r="B62" s="81">
+      <c r="B62" s="75">
         <v>2.4903635298748505E-2</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="82" t="str">
+      <c r="D62" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="81"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="80">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="73">
         <v>133</v>
       </c>
-      <c r="B63" s="81">
+      <c r="B63" s="75">
         <v>5.2919783781987473E-2</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="82" t="str">
+      <c r="D63" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="81"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="80">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="73">
         <v>212</v>
       </c>
-      <c r="B64" s="81">
+      <c r="B64" s="75">
         <v>3.1333207728552415E-2</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D64" s="82" t="str">
+      <c r="D64" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="81"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="80">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
         <v>215</v>
       </c>
-      <c r="B65" s="81">
+      <c r="B65" s="75">
         <v>2.6258829494876679E-2</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="82" t="str">
+      <c r="D65" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="81"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="80">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
         <v>137</v>
       </c>
-      <c r="B66" s="81">
+      <c r="B66" s="75">
         <v>1.905480124563752E-2</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="82" t="str">
+      <c r="D66" s="76" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="81"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="80">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="73">
         <v>236</v>
       </c>
-      <c r="B67" s="81">
+      <c r="B67" s="75">
         <v>8.8879336321245228E-2</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="82" t="str">
+      <c r="D67" s="76" t="str">
         <f t="shared" ref="D67:D130" si="1">LEFT(C67,1)</f>
         <v>L</v>
       </c>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="81"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="80">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="73">
         <v>34</v>
       </c>
-      <c r="B68" s="81">
+      <c r="B68" s="75">
         <v>0.13547165516484005</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="82" t="str">
+      <c r="D68" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="81"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="80">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="73">
         <v>58</v>
       </c>
-      <c r="B69" s="81">
+      <c r="B69" s="75">
         <v>1.7904940080534337E-2</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="82" t="str">
+      <c r="D69" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="81"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="80">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
         <v>238</v>
       </c>
-      <c r="B70" s="81">
+      <c r="B70" s="75">
         <v>3.54967192290081E-2</v>
       </c>
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="82" t="str">
+      <c r="D70" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="81"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="80">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="73">
         <v>71</v>
       </c>
-      <c r="B71" s="81">
+      <c r="B71" s="75">
         <v>0.10875539051046068</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="82" t="str">
+      <c r="D71" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="81"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="80">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
         <v>161</v>
       </c>
-      <c r="B72" s="81">
+      <c r="B72" s="75">
         <v>0.10168142216701126</v>
       </c>
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="82" t="str">
+      <c r="D72" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="81"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="80">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="73">
         <v>24</v>
       </c>
-      <c r="B73" s="81">
+      <c r="B73" s="75">
         <v>9.2432738379578439E-2</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="82" t="str">
+      <c r="D73" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="81"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="80">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
         <v>80</v>
       </c>
-      <c r="B74" s="81">
+      <c r="B74" s="75">
         <v>1.8562969664026041E-2</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="82" t="str">
+      <c r="D74" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="81"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="80">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="73">
         <v>207</v>
       </c>
-      <c r="B75" s="81">
+      <c r="B75" s="75">
         <v>3.17821898508025E-2</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="82" t="str">
+      <c r="D75" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="81"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="80">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="73">
         <v>224</v>
       </c>
-      <c r="B76" s="81">
+      <c r="B76" s="75">
         <v>6.5487283533661067E-2</v>
       </c>
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="82" t="str">
+      <c r="D76" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="81"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="80">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="73">
         <v>38</v>
       </c>
-      <c r="B77" s="81">
+      <c r="B77" s="75">
         <v>8.8061052534351703E-3</v>
       </c>
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="82" t="str">
+      <c r="D77" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="80"/>
-      <c r="B78" s="81">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="75">
         <v>7.817326064896124E-2</v>
       </c>
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="82" t="str">
+      <c r="D78" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="81"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="80"/>
-      <c r="B79" s="81">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="75">
         <v>2.6151101345845418E-2</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="82" t="str">
+      <c r="D79" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="81"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="80">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="73">
         <v>49</v>
       </c>
-      <c r="B80" s="81">
+      <c r="B80" s="75">
         <v>5.3423601991399616E-2</v>
       </c>
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="82" t="str">
+      <c r="D80" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="81"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="80">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
         <v>21</v>
       </c>
-      <c r="B81" s="81">
+      <c r="B81" s="75">
         <v>4.4110252868287292E-2</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="82" t="str">
+      <c r="D81" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="81"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="80">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="73">
         <v>204</v>
       </c>
-      <c r="B82" s="81">
+      <c r="B82" s="75">
         <v>0.42541234041565845</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="82" t="str">
+      <c r="D82" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="81"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="80">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="73">
         <v>242</v>
       </c>
-      <c r="B83" s="81">
+      <c r="B83" s="75">
         <v>5.5360907782445068E-2</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="82" t="str">
+      <c r="D83" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="81"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="80">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="73">
         <v>230</v>
       </c>
-      <c r="B84" s="81">
+      <c r="B84" s="75">
         <v>5.2568772449328671E-2</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="82" t="str">
+      <c r="D84" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="81"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="80">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="73">
         <v>62</v>
       </c>
-      <c r="B85" s="81">
+      <c r="B85" s="75">
         <v>2.2543112308457069E-2</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="82" t="str">
+      <c r="D85" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="81"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="80">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="73">
         <v>55</v>
       </c>
-      <c r="B86" s="81">
+      <c r="B86" s="75">
         <v>2.8919951900287066E-2</v>
       </c>
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="82" t="str">
+      <c r="D86" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="81"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="80">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="73">
         <v>205</v>
       </c>
-      <c r="B87" s="81">
+      <c r="B87" s="75">
         <v>1.2481759387869107E-2</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="82" t="str">
+      <c r="D87" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="81"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="80">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="73">
         <v>31</v>
       </c>
-      <c r="B88" s="81">
+      <c r="B88" s="75">
         <v>3.7530938146675519E-2</v>
       </c>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="82" t="str">
+      <c r="D88" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="81"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="80">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="73">
         <v>211</v>
       </c>
-      <c r="B89" s="81">
+      <c r="B89" s="75">
         <v>8.9020211174494213E-3</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="82" t="str">
+      <c r="D89" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="81"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="80">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="73">
         <v>70</v>
       </c>
-      <c r="B90" s="81">
+      <c r="B90" s="75">
         <v>5.0764001865578723E-2</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="82" t="str">
+      <c r="D90" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="81"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="80">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="73">
         <v>139</v>
       </c>
-      <c r="B91" s="81">
+      <c r="B91" s="75">
         <v>3.4654423676559465E-2</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="82" t="str">
+      <c r="D91" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="81"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="80">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="73">
         <v>147</v>
       </c>
-      <c r="B92" s="81">
+      <c r="B92" s="75">
         <v>0.36174191091579733</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="82" t="str">
+      <c r="D92" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="81"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="80">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="73">
         <v>93</v>
       </c>
-      <c r="B93" s="81">
+      <c r="B93" s="75">
         <v>1.9524257135351553E-2</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="82" t="str">
+      <c r="D93" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="81"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="80">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="73">
         <v>210</v>
       </c>
-      <c r="B94" s="81">
+      <c r="B94" s="75">
         <v>1.8668483266807701E-2</v>
       </c>
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="82" t="str">
+      <c r="D94" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="81"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="80">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
         <v>159</v>
       </c>
-      <c r="B95" s="81">
+      <c r="B95" s="75">
         <v>0.21086397167381332</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="82" t="str">
+      <c r="D95" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="81"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="80">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="73">
         <v>12</v>
       </c>
-      <c r="B96" s="81">
+      <c r="B96" s="75">
         <v>2.0367034565798581E-2</v>
       </c>
-      <c r="C96" s="80" t="s">
+      <c r="C96" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="82" t="str">
+      <c r="D96" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="81"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="80">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="73">
         <v>167</v>
       </c>
-      <c r="B97" s="81">
+      <c r="B97" s="75">
         <v>0.15499719463971839</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="82" t="str">
+      <c r="D97" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="81"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="80">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="73">
         <v>227</v>
       </c>
-      <c r="B98" s="81">
+      <c r="B98" s="75">
         <v>1.7517040115628935E-2</v>
       </c>
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D98" s="82" t="str">
+      <c r="D98" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="81"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
-      <c r="B99" s="81">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="75">
         <v>1.0661058190936656E-2</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="D99" s="82" t="str">
+      <c r="D99" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="81"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="80">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="73">
         <v>191</v>
       </c>
-      <c r="B100" s="81">
+      <c r="B100" s="75">
         <v>2.3816748210529481E-2</v>
       </c>
-      <c r="C100" s="80" t="s">
+      <c r="C100" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="D100" s="82" t="str">
+      <c r="D100" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="81"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="80">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="73">
         <v>157</v>
       </c>
-      <c r="B101" s="81">
+      <c r="B101" s="75">
         <v>2.6136201617355637E-2</v>
       </c>
-      <c r="C101" s="80" t="s">
+      <c r="C101" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D101" s="82" t="str">
+      <c r="D101" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="81"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="80">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="73">
         <v>166</v>
       </c>
-      <c r="B102" s="81">
+      <c r="B102" s="75">
         <v>1.3411927281947955E-2</v>
       </c>
-      <c r="C102" s="80" t="s">
+      <c r="C102" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="D102" s="82" t="str">
+      <c r="D102" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="81"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="80">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="73">
         <v>26</v>
       </c>
-      <c r="B103" s="81">
+      <c r="B103" s="75">
         <v>6.6001991822125183E-2</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D103" s="82" t="str">
+      <c r="D103" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="81"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="80">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="73">
         <v>54</v>
       </c>
-      <c r="B104" s="81">
+      <c r="B104" s="75">
         <v>1.5839815222841835E-2</v>
       </c>
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D104" s="82" t="str">
+      <c r="D104" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="81"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="80">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="73">
         <v>190</v>
       </c>
-      <c r="B105" s="81">
+      <c r="B105" s="75">
         <v>6.7880228999825265E-2</v>
       </c>
-      <c r="C105" s="80" t="s">
+      <c r="C105" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D105" s="82" t="str">
+      <c r="D105" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="81"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="80">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="73">
         <v>9</v>
       </c>
-      <c r="B106" s="81">
+      <c r="B106" s="75">
         <v>8.365851963264237E-2</v>
       </c>
-      <c r="C106" s="80" t="s">
+      <c r="C106" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="82" t="str">
+      <c r="D106" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="81"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="80">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="73">
         <v>59</v>
       </c>
-      <c r="B107" s="81">
+      <c r="B107" s="75">
         <v>8.5971620084750344E-2</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="82" t="str">
+      <c r="D107" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="81"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="80">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="73">
         <v>176</v>
       </c>
-      <c r="B108" s="81">
+      <c r="B108" s="75">
         <v>3.0717570365762503E-2</v>
       </c>
-      <c r="C108" s="80" t="s">
+      <c r="C108" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D108" s="82" t="str">
+      <c r="D108" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="81"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="80">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="73">
         <v>232</v>
       </c>
-      <c r="B109" s="81">
+      <c r="B109" s="75">
         <v>3.6441481488073024E-2</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D109" s="82" t="str">
+      <c r="D109" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="81"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="80">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="73">
         <v>237</v>
       </c>
-      <c r="B110" s="81">
+      <c r="B110" s="75">
         <v>0.20130500445946287</v>
       </c>
-      <c r="C110" s="80" t="s">
+      <c r="C110" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D110" s="82" t="str">
+      <c r="D110" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="81"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="80">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="73">
         <v>149</v>
       </c>
-      <c r="B111" s="81">
+      <c r="B111" s="75">
         <v>5.2877175944627264E-2</v>
       </c>
-      <c r="C111" s="80" t="s">
+      <c r="C111" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D111" s="82" t="str">
+      <c r="D111" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E111" s="82"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="81"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="80">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="73">
         <v>193</v>
       </c>
-      <c r="B112" s="81">
+      <c r="B112" s="75">
         <v>1.1406050704913295E-2</v>
       </c>
-      <c r="C112" s="80" t="s">
+      <c r="C112" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="82" t="str">
+      <c r="D112" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="81"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="80">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="73">
         <v>194</v>
       </c>
-      <c r="B113" s="81">
+      <c r="B113" s="75">
         <v>7.3173679436246419E-2</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="82" t="str">
+      <c r="D113" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E113" s="82"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="81"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="80">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="73">
         <v>91</v>
       </c>
-      <c r="B114" s="81">
+      <c r="B114" s="75">
         <v>0.28239813478358267</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="82" t="str">
+      <c r="D114" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="81"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="80">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="73">
         <v>217</v>
       </c>
-      <c r="B115" s="81">
+      <c r="B115" s="75">
         <v>9.8017315244161018E-2</v>
       </c>
-      <c r="C115" s="80" t="s">
+      <c r="C115" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D115" s="82" t="str">
+      <c r="D115" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="81"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="80">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="73">
         <v>65</v>
       </c>
-      <c r="B116" s="81">
+      <c r="B116" s="75">
         <v>2.0877700291884738E-2</v>
       </c>
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="82" t="str">
+      <c r="D116" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="81"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="80">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="73">
         <v>222</v>
       </c>
-      <c r="B117" s="81">
+      <c r="B117" s="75">
         <v>1.6952294496460407E-2</v>
       </c>
-      <c r="C117" s="80" t="s">
+      <c r="C117" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="D117" s="82" t="str">
+      <c r="D117" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E117" s="82"/>
-      <c r="F117" s="82"/>
-      <c r="G117" s="81"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="80">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="73">
         <v>225</v>
       </c>
-      <c r="B118" s="81">
+      <c r="B118" s="75">
         <v>2.4631859864736483E-2</v>
       </c>
-      <c r="C118" s="80" t="s">
+      <c r="C118" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="82" t="str">
+      <c r="D118" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="81"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="80">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="73">
         <v>87</v>
       </c>
-      <c r="B119" s="81">
+      <c r="B119" s="75">
         <v>0.13720208002718393</v>
       </c>
-      <c r="C119" s="80" t="s">
+      <c r="C119" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="82" t="str">
+      <c r="D119" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
-      <c r="G119" s="81"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="80">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="73">
         <v>228</v>
       </c>
-      <c r="B120" s="81">
+      <c r="B120" s="75">
         <v>6.3247754334004425E-2</v>
       </c>
-      <c r="C120" s="80" t="s">
+      <c r="C120" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="D120" s="82" t="str">
+      <c r="D120" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="81"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="80">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="73">
         <v>36</v>
       </c>
-      <c r="B121" s="81">
+      <c r="B121" s="75">
         <v>6.8551467816152512E-2</v>
       </c>
-      <c r="C121" s="80" t="s">
+      <c r="C121" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D121" s="82" t="str">
+      <c r="D121" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="81"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="80">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="73">
         <v>77</v>
       </c>
-      <c r="B122" s="81">
+      <c r="B122" s="75">
         <v>0.14728038601685234</v>
       </c>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="82" t="str">
+      <c r="D122" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="81"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="80">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="73">
         <v>22</v>
       </c>
-      <c r="B123" s="81">
+      <c r="B123" s="75">
         <v>3.2714362238783878E-2</v>
       </c>
-      <c r="C123" s="80" t="s">
+      <c r="C123" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="82" t="str">
+      <c r="D123" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="81"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="80">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="73">
         <v>52</v>
       </c>
-      <c r="B124" s="81">
+      <c r="B124" s="75">
         <v>3.480560537518107E-2</v>
       </c>
-      <c r="C124" s="80" t="s">
+      <c r="C124" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="82" t="str">
+      <c r="D124" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="81"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="80">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="73">
         <v>144</v>
       </c>
-      <c r="B125" s="81">
+      <c r="B125" s="75">
         <v>4.1809152805552308E-2</v>
       </c>
-      <c r="C125" s="80" t="s">
+      <c r="C125" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D125" s="82" t="str">
+      <c r="D125" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="81"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="80">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="73">
         <v>213</v>
       </c>
-      <c r="B126" s="81">
+      <c r="B126" s="75">
         <v>3.7233575154282383E-2</v>
       </c>
-      <c r="C126" s="80" t="s">
+      <c r="C126" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="D126" s="82" t="str">
+      <c r="D126" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="81"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="80">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="73">
         <v>233</v>
       </c>
-      <c r="B127" s="81">
+      <c r="B127" s="75">
         <v>7.1260284674613206E-2</v>
       </c>
-      <c r="C127" s="80" t="s">
+      <c r="C127" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D127" s="82" t="str">
+      <c r="D127" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="81"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="80">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="73">
         <v>239</v>
       </c>
-      <c r="B128" s="81">
+      <c r="B128" s="75">
         <v>3.0422209576927872E-2</v>
       </c>
-      <c r="C128" s="80" t="s">
+      <c r="C128" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D128" s="82" t="str">
+      <c r="D128" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E128" s="82"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="81"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="80">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="73">
         <v>142</v>
       </c>
-      <c r="B129" s="81">
+      <c r="B129" s="75">
         <v>2.8554759770572646E-2</v>
       </c>
-      <c r="C129" s="80" t="s">
+      <c r="C129" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="82" t="str">
+      <c r="D129" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="81"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="80">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="73">
         <v>85</v>
       </c>
-      <c r="B130" s="81">
+      <c r="B130" s="75">
         <v>1.5624118379575003E-2</v>
       </c>
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D130" s="82" t="str">
+      <c r="D130" s="76" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="81"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="80">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="73">
         <v>196</v>
       </c>
-      <c r="B131" s="81">
+      <c r="B131" s="75">
         <v>2.6783097123098121E-2</v>
       </c>
-      <c r="C131" s="80" t="s">
+      <c r="C131" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="D131" s="82" t="str">
+      <c r="D131" s="76" t="str">
         <f t="shared" ref="D131:D194" si="2">LEFT(C131,1)</f>
         <v>L</v>
       </c>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="81"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="80">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="73">
         <v>182</v>
       </c>
-      <c r="B132" s="81">
+      <c r="B132" s="75">
         <v>2.5406646754904227E-2</v>
       </c>
-      <c r="C132" s="80" t="s">
+      <c r="C132" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="D132" s="82" t="str">
+      <c r="D132" s="76" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="81"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="80">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="73">
         <v>37</v>
       </c>
-      <c r="B133" s="81">
+      <c r="B133" s="75">
         <v>5.8124196253122928E-2</v>
       </c>
-      <c r="C133" s="80" t="s">
+      <c r="C133" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D133" s="82" t="str">
+      <c r="D133" s="76" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="81"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="80">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="73">
         <v>14</v>
       </c>
-      <c r="B134" s="81">
+      <c r="B134" s="75">
         <v>8.084538484706949E-2</v>
       </c>
-      <c r="C134" s="80" t="s">
+      <c r="C134" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D134" s="82" t="str">
+      <c r="D134" s="76" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="E134" s="82"/>
-      <c r="F134" s="82"/>
-      <c r="G134" s="81"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="80">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="73">
         <v>209</v>
       </c>
-      <c r="B135" s="81">
+      <c r="B135" s="75">
         <v>4.0674285616653538E-2</v>
       </c>
-      <c r="C135" s="83" t="s">
+      <c r="C135" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="82" t="str">
+      <c r="D135" s="76" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="E135" s="82"/>
-      <c r="F135" s="82"/>
-      <c r="G135" s="81"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="80">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="73">
         <v>181</v>
       </c>
-      <c r="B136" s="81">
+      <c r="B136" s="75">
         <v>0.11102534697173705</v>
       </c>
-      <c r="C136" s="80" t="s">
+      <c r="C136" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D136" s="82" t="str">
+      <c r="D136" s="76" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="81"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="80">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="73">
         <v>78</v>
       </c>
-      <c r="B137" s="81">
+      <c r="B137" s="75">
         <v>2.1794463812185527E-2</v>
       </c>
-      <c r="C137" s="80" t="s">
+      <c r="C137" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D137" s="82" t="str">
+      <c r="D137" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E137" s="82"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="81"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="80">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="73">
         <v>221</v>
       </c>
-      <c r="B138" s="81">
+      <c r="B138" s="75">
         <v>1.6463081540771252E-2</v>
       </c>
-      <c r="C138" s="80" t="s">
+      <c r="C138" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D138" s="82" t="str">
+      <c r="D138" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E138" s="82"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="81"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="80"/>
-      <c r="B139" s="81">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="75">
         <v>2.6677928847993693E-2</v>
       </c>
-      <c r="C139" s="80" t="s">
+      <c r="C139" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="D139" s="82" t="str">
+      <c r="D139" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E139" s="82"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="81"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="80">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="73">
         <v>231</v>
       </c>
-      <c r="B140" s="81">
+      <c r="B140" s="75">
         <v>0.22709089175612485</v>
       </c>
-      <c r="C140" s="80" t="s">
+      <c r="C140" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="D140" s="82" t="str">
+      <c r="D140" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="81"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="80"/>
-      <c r="B141" s="81">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="75">
         <v>2.1777998854059621E-2</v>
       </c>
-      <c r="C141" s="80" t="s">
+      <c r="C141" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="D141" s="82" t="str">
+      <c r="D141" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E141" s="82"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="81"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="80">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="73">
         <v>97</v>
       </c>
-      <c r="B142" s="81">
+      <c r="B142" s="75">
         <v>1.2969875879336623E-2</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="D142" s="82" t="str">
+      <c r="D142" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="81"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="80">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="73">
         <v>227</v>
       </c>
-      <c r="B143" s="81">
+      <c r="B143" s="75">
         <v>4.2773705110292326E-2</v>
       </c>
-      <c r="C143" s="80" t="s">
+      <c r="C143" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="D143" s="82" t="str">
+      <c r="D143" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E143" s="82"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="81"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="80">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="73">
         <v>187</v>
       </c>
-      <c r="B144" s="81">
+      <c r="B144" s="75">
         <v>3.1761679154367561E-2</v>
       </c>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="D144" s="82" t="str">
+      <c r="D144" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="81"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="80">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="73">
         <v>53</v>
       </c>
-      <c r="B145" s="81">
+      <c r="B145" s="75">
         <v>3.8303031443578051E-2</v>
       </c>
-      <c r="C145" s="80" t="s">
+      <c r="C145" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D145" s="82" t="str">
+      <c r="D145" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="81"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="80">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="73">
         <v>213</v>
       </c>
-      <c r="B146" s="81">
+      <c r="B146" s="75">
         <v>0.4351368296176551</v>
       </c>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D146" s="82" t="str">
+      <c r="D146" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E146" s="82"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="81"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="80">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="73">
         <v>243</v>
       </c>
-      <c r="B147" s="81">
+      <c r="B147" s="75">
         <v>4.6196634615352838E-2</v>
       </c>
-      <c r="C147" s="80" t="s">
+      <c r="C147" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D147" s="82" t="str">
+      <c r="D147" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="81"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="B148" s="81">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="75">
         <v>9.0452853447441139E-2</v>
       </c>
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="D148" s="82" t="str">
+      <c r="D148" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="81"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="80">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="73">
         <v>23</v>
       </c>
-      <c r="B149" s="81">
+      <c r="B149" s="75">
         <v>8.8001226427441792E-2</v>
       </c>
-      <c r="C149" s="80" t="s">
+      <c r="C149" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="D149" s="82" t="str">
+      <c r="D149" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E149" s="82"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="81"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="80">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="73">
         <v>72</v>
       </c>
-      <c r="B150" s="81">
+      <c r="B150" s="75">
         <v>2.3979136175805826E-2</v>
       </c>
-      <c r="C150" s="80" t="s">
+      <c r="C150" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D150" s="82" t="str">
+      <c r="D150" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E150" s="82"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="81"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="80">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="73">
         <v>235</v>
       </c>
-      <c r="B151" s="81">
+      <c r="B151" s="75">
         <v>9.9946959625133447E-3</v>
       </c>
-      <c r="C151" s="80" t="s">
+      <c r="C151" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D151" s="82" t="str">
+      <c r="D151" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E151" s="82"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="81"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="80">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="73">
         <v>214</v>
       </c>
-      <c r="B152" s="81">
+      <c r="B152" s="75">
         <v>1.8180714275552567E-2</v>
       </c>
-      <c r="C152" s="80" t="s">
+      <c r="C152" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D152" s="82" t="str">
+      <c r="D152" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E152" s="82"/>
-      <c r="F152" s="82"/>
-      <c r="G152" s="81"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="80">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="73">
         <v>33</v>
       </c>
-      <c r="B153" s="81">
+      <c r="B153" s="75">
         <v>3.0039973151414934E-2</v>
       </c>
-      <c r="C153" s="80" t="s">
+      <c r="C153" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D153" s="82" t="str">
+      <c r="D153" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E153" s="82"/>
-      <c r="F153" s="82"/>
-      <c r="G153" s="81"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="80">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="73">
         <v>180</v>
       </c>
-      <c r="B154" s="81">
+      <c r="B154" s="75">
         <v>1.7078047606969959E-2</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D154" s="82" t="str">
+      <c r="D154" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E154" s="82"/>
-      <c r="F154" s="82"/>
-      <c r="G154" s="81"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="80">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="73">
         <v>211</v>
       </c>
-      <c r="B155" s="81">
+      <c r="B155" s="75">
         <v>1.6729875931210336E-2</v>
       </c>
-      <c r="C155" s="80" t="s">
+      <c r="C155" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="D155" s="82" t="str">
+      <c r="D155" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E155" s="82"/>
-      <c r="F155" s="82"/>
-      <c r="G155" s="81"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="80">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="73">
         <v>170</v>
       </c>
-      <c r="B156" s="81">
+      <c r="B156" s="75">
         <v>2.3783794430842331E-2</v>
       </c>
-      <c r="C156" s="80" t="s">
+      <c r="C156" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="82" t="str">
+      <c r="D156" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E156" s="82"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="81"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="80">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="73">
         <v>222</v>
       </c>
-      <c r="B157" s="81">
+      <c r="B157" s="75">
         <v>0.1296772195347119</v>
       </c>
-      <c r="C157" s="80" t="s">
+      <c r="C157" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="D157" s="82" t="str">
+      <c r="D157" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E157" s="82"/>
-      <c r="F157" s="82"/>
-      <c r="G157" s="81"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="80">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="73">
         <v>229</v>
       </c>
-      <c r="B158" s="81">
+      <c r="B158" s="75">
         <v>1.1696346075407149E-2</v>
       </c>
-      <c r="C158" s="80" t="s">
+      <c r="C158" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="D158" s="82" t="str">
+      <c r="D158" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E158" s="82"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="81"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="80">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="73">
         <v>30</v>
       </c>
-      <c r="B159" s="81">
+      <c r="B159" s="75">
         <v>3.2979438023360563E-3</v>
       </c>
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D159" s="82" t="str">
+      <c r="D159" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E159" s="82"/>
-      <c r="F159" s="82"/>
-      <c r="G159" s="81"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="80">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="73">
         <v>221</v>
       </c>
-      <c r="B160" s="81">
+      <c r="B160" s="75">
         <v>0.19786546561004503</v>
       </c>
-      <c r="C160" s="80" t="s">
+      <c r="C160" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="D160" s="82" t="str">
+      <c r="D160" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E160" s="82"/>
-      <c r="F160" s="82"/>
-      <c r="G160" s="81"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="80">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="73">
         <v>233</v>
       </c>
-      <c r="B161" s="81">
+      <c r="B161" s="75">
         <v>5.6278119861972065E-2</v>
       </c>
-      <c r="C161" s="80" t="s">
+      <c r="C161" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D161" s="82" t="str">
+      <c r="D161" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E161" s="82"/>
-      <c r="F161" s="82"/>
-      <c r="G161" s="81"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="80">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="73">
         <v>171</v>
       </c>
-      <c r="B162" s="81">
+      <c r="B162" s="75">
         <v>3.4569501814661452E-2</v>
       </c>
-      <c r="C162" s="80" t="s">
+      <c r="C162" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D162" s="82" t="str">
+      <c r="D162" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E162" s="82"/>
-      <c r="F162" s="82"/>
-      <c r="G162" s="81"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="80">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="73">
         <v>169</v>
       </c>
-      <c r="B163" s="81">
+      <c r="B163" s="75">
         <v>2.8185027652351313E-2</v>
       </c>
-      <c r="C163" s="80" t="s">
+      <c r="C163" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D163" s="82" t="str">
+      <c r="D163" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E163" s="82"/>
-      <c r="F163" s="82"/>
-      <c r="G163" s="81"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="80">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="73">
         <v>192</v>
       </c>
-      <c r="B164" s="81">
+      <c r="B164" s="75">
         <v>1.9851778868180348E-2</v>
       </c>
-      <c r="C164" s="80" t="s">
+      <c r="C164" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D164" s="82" t="str">
+      <c r="D164" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E164" s="82"/>
-      <c r="F164" s="82"/>
-      <c r="G164" s="81"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="80">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="73">
         <v>179</v>
       </c>
-      <c r="B165" s="81">
+      <c r="B165" s="75">
         <v>3.4420400985109123E-2</v>
       </c>
-      <c r="C165" s="80" t="s">
+      <c r="C165" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="D165" s="82" t="str">
+      <c r="D165" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E165" s="82"/>
-      <c r="F165" s="82"/>
-      <c r="G165" s="81"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="80">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="73">
         <v>43</v>
       </c>
-      <c r="B166" s="81">
+      <c r="B166" s="75">
         <v>8.1231768559954287E-2</v>
       </c>
-      <c r="C166" s="80" t="s">
+      <c r="C166" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D166" s="82" t="str">
+      <c r="D166" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E166" s="82"/>
-      <c r="F166" s="82"/>
-      <c r="G166" s="81"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="80">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="73">
         <v>44</v>
       </c>
-      <c r="B167" s="81">
+      <c r="B167" s="75">
         <v>3.6011441325203508E-2</v>
       </c>
-      <c r="C167" s="80" t="s">
+      <c r="C167" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D167" s="82" t="str">
+      <c r="D167" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E167" s="82"/>
-      <c r="F167" s="82"/>
-      <c r="G167" s="81"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="80">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="73">
         <v>232</v>
       </c>
-      <c r="B168" s="81">
+      <c r="B168" s="75">
         <v>4.9297843708436928E-2</v>
       </c>
-      <c r="C168" s="80" t="s">
+      <c r="C168" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="D168" s="82" t="str">
+      <c r="D168" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E168" s="82"/>
-      <c r="F168" s="82"/>
-      <c r="G168" s="81"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="80">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="73">
         <v>10</v>
       </c>
-      <c r="B169" s="81">
+      <c r="B169" s="75">
         <v>8.4655454884996928E-2</v>
       </c>
-      <c r="C169" s="80" t="s">
+      <c r="C169" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D169" s="82" t="str">
+      <c r="D169" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E169" s="82"/>
-      <c r="F169" s="82"/>
-      <c r="G169" s="81"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="80">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="73">
         <v>63</v>
       </c>
-      <c r="B170" s="81">
+      <c r="B170" s="75">
         <v>5.543810495684165E-2</v>
       </c>
-      <c r="C170" s="80" t="s">
+      <c r="C170" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D170" s="82" t="str">
+      <c r="D170" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E170" s="82"/>
-      <c r="F170" s="82"/>
-      <c r="G170" s="81"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="80">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="73">
         <v>84</v>
       </c>
-      <c r="B171" s="81">
+      <c r="B171" s="75">
         <v>5.8488527905758314E-2</v>
       </c>
-      <c r="C171" s="80" t="s">
+      <c r="C171" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D171" s="82" t="str">
+      <c r="D171" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E171" s="82"/>
-      <c r="F171" s="82"/>
-      <c r="G171" s="81"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="80">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="73">
         <v>99</v>
       </c>
-      <c r="B172" s="81">
+      <c r="B172" s="75">
         <v>2.9978634293190809E-2</v>
       </c>
-      <c r="C172" s="80" t="s">
+      <c r="C172" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D172" s="82" t="str">
+      <c r="D172" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E172" s="82"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="81"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="80">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="73">
         <v>48</v>
       </c>
-      <c r="B173" s="81">
+      <c r="B173" s="75">
         <v>4.8995242389729965E-2</v>
       </c>
-      <c r="C173" s="80" t="s">
+      <c r="C173" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D173" s="82" t="str">
+      <c r="D173" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E173" s="82"/>
-      <c r="F173" s="82"/>
-      <c r="G173" s="81"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="80">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="73">
         <v>218</v>
       </c>
-      <c r="B174" s="81">
+      <c r="B174" s="75">
         <v>4.7834253972933172E-2</v>
       </c>
-      <c r="C174" s="80" t="s">
+      <c r="C174" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D174" s="82" t="str">
+      <c r="D174" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E174" s="82"/>
-      <c r="F174" s="82"/>
-      <c r="G174" s="81"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="80">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="73">
         <v>226</v>
       </c>
-      <c r="B175" s="81">
+      <c r="B175" s="75">
         <v>4.2018151339255128E-2</v>
       </c>
-      <c r="C175" s="80" t="s">
+      <c r="C175" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D175" s="82" t="str">
+      <c r="D175" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E175" s="82"/>
-      <c r="F175" s="82"/>
-      <c r="G175" s="81"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="80">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="73">
         <v>152</v>
       </c>
-      <c r="B176" s="81">
+      <c r="B176" s="75">
         <v>0.12826086086826727</v>
       </c>
-      <c r="C176" s="80" t="s">
+      <c r="C176" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D176" s="82" t="str">
+      <c r="D176" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E176" s="82"/>
-      <c r="F176" s="82"/>
-      <c r="G176" s="81"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="80">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="73">
         <v>172</v>
       </c>
-      <c r="B177" s="81">
+      <c r="B177" s="75">
         <v>1.3084116130302248E-2</v>
       </c>
-      <c r="C177" s="80" t="s">
+      <c r="C177" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D177" s="82" t="str">
+      <c r="D177" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="81"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="80">
-        <v>1</v>
-      </c>
-      <c r="B178" s="81">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="73">
+        <v>1</v>
+      </c>
+      <c r="B178" s="75">
         <v>0.11091501140569293</v>
       </c>
-      <c r="C178" s="80" t="s">
+      <c r="C178" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D178" s="82" t="str">
+      <c r="D178" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E178" s="82"/>
-      <c r="F178" s="82"/>
-      <c r="G178" s="81"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="80">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="73">
         <v>20</v>
       </c>
-      <c r="B179" s="81">
+      <c r="B179" s="75">
         <v>6.3485865869932767E-2</v>
       </c>
-      <c r="C179" s="80" t="s">
+      <c r="C179" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="82" t="str">
+      <c r="D179" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E179" s="82"/>
-      <c r="F179" s="82"/>
-      <c r="G179" s="81"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="80">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="73">
         <v>160</v>
       </c>
-      <c r="B180" s="81">
+      <c r="B180" s="75">
         <v>3.0460034290764937E-2</v>
       </c>
-      <c r="C180" s="80" t="s">
+      <c r="C180" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="82" t="str">
+      <c r="D180" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E180" s="82"/>
-      <c r="F180" s="82"/>
-      <c r="G180" s="81"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="80">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="73">
         <v>154</v>
       </c>
-      <c r="B181" s="81">
+      <c r="B181" s="75">
         <v>2.7500274911473777E-2</v>
       </c>
-      <c r="C181" s="80" t="s">
+      <c r="C181" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D181" s="82" t="str">
+      <c r="D181" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E181" s="82"/>
-      <c r="F181" s="82"/>
-      <c r="G181" s="81"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="80">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="73">
         <v>143</v>
       </c>
-      <c r="B182" s="81">
+      <c r="B182" s="75">
         <v>6.0869301141259657E-2</v>
       </c>
-      <c r="C182" s="80" t="s">
+      <c r="C182" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="D182" s="82" t="str">
+      <c r="D182" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E182" s="82"/>
-      <c r="F182" s="82"/>
-      <c r="G182" s="81"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="80">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="73">
         <v>151</v>
       </c>
-      <c r="B183" s="81">
+      <c r="B183" s="75">
         <v>3.6264714622231131E-2</v>
       </c>
-      <c r="C183" s="80" t="s">
+      <c r="C183" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="D183" s="82" t="str">
+      <c r="D183" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E183" s="82"/>
-      <c r="F183" s="82"/>
-      <c r="G183" s="81"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="80">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="73">
         <v>27</v>
       </c>
-      <c r="B184" s="81">
+      <c r="B184" s="75">
         <v>8.1684038475146048E-3</v>
       </c>
-      <c r="C184" s="80" t="s">
+      <c r="C184" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D184" s="82" t="str">
+      <c r="D184" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E184" s="82"/>
-      <c r="F184" s="82"/>
-      <c r="G184" s="81"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="80">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="73">
         <v>178</v>
       </c>
-      <c r="B185" s="81">
+      <c r="B185" s="75">
         <v>7.6619036330053625E-2</v>
       </c>
-      <c r="C185" s="80" t="s">
+      <c r="C185" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="D185" s="82" t="str">
+      <c r="D185" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E185" s="82"/>
-      <c r="F185" s="82"/>
-      <c r="G185" s="81"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="80">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="73">
         <v>50</v>
       </c>
-      <c r="B186" s="81">
+      <c r="B186" s="75">
         <v>0.3095801092495748</v>
       </c>
-      <c r="C186" s="80" t="s">
+      <c r="C186" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="D186" s="82" t="str">
+      <c r="D186" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E186" s="82"/>
-      <c r="F186" s="82"/>
-      <c r="G186" s="81"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="80">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="73">
         <v>153</v>
       </c>
-      <c r="B187" s="81">
+      <c r="B187" s="75">
         <v>7.5622970078030094E-2</v>
       </c>
-      <c r="C187" s="80" t="s">
+      <c r="C187" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="D187" s="82" t="str">
+      <c r="D187" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E187" s="82"/>
-      <c r="F187" s="82"/>
-      <c r="G187" s="81"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="80">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="73">
         <v>7</v>
       </c>
-      <c r="B188" s="81">
+      <c r="B188" s="75">
         <v>0.15143913435412604</v>
       </c>
-      <c r="C188" s="80" t="s">
+      <c r="C188" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D188" s="82" t="str">
+      <c r="D188" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E188" s="82"/>
-      <c r="F188" s="82"/>
-      <c r="G188" s="81"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="80">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="73">
         <v>173</v>
       </c>
-      <c r="B189" s="81">
+      <c r="B189" s="75">
         <v>0.18880969819456006</v>
       </c>
-      <c r="C189" s="80" t="s">
+      <c r="C189" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D189" s="82" t="str">
+      <c r="D189" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E189" s="82"/>
-      <c r="F189" s="82"/>
-      <c r="G189" s="81"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="80">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="73">
         <v>135</v>
       </c>
-      <c r="B190" s="81">
+      <c r="B190" s="75">
         <v>2.9155360819297593E-2</v>
       </c>
-      <c r="C190" s="80" t="s">
+      <c r="C190" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D190" s="82" t="str">
+      <c r="D190" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E190" s="82"/>
-      <c r="F190" s="82"/>
-      <c r="G190" s="81"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="80">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="73">
         <v>17</v>
       </c>
-      <c r="B191" s="81">
+      <c r="B191" s="75">
         <v>9.1335557969672965E-2</v>
       </c>
-      <c r="C191" s="80" t="s">
+      <c r="C191" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D191" s="82" t="str">
+      <c r="D191" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E191" s="82"/>
-      <c r="F191" s="82"/>
-      <c r="G191" s="81"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="80">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="73">
         <v>164</v>
       </c>
-      <c r="B192" s="81">
+      <c r="B192" s="75">
         <v>0.11761803728138109</v>
       </c>
-      <c r="C192" s="80" t="s">
+      <c r="C192" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D192" s="82" t="str">
+      <c r="D192" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E192" s="82"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="81"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="80">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="73">
         <v>223</v>
       </c>
-      <c r="B193" s="81">
+      <c r="B193" s="75">
         <v>6.2657430401612535E-2</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C193" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="D193" s="82" t="str">
+      <c r="D193" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="81"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="80">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="73">
         <v>4</v>
       </c>
-      <c r="B194" s="81">
+      <c r="B194" s="75">
         <v>3.2752586750473878E-2</v>
       </c>
-      <c r="C194" s="80" t="s">
+      <c r="C194" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D194" s="82" t="str">
+      <c r="D194" s="76" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="E194" s="82"/>
-      <c r="F194" s="82"/>
-      <c r="G194" s="81"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="80">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="73">
         <v>226</v>
       </c>
-      <c r="B195" s="81">
+      <c r="B195" s="75">
         <v>1.656142790637849E-2</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C195" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D195" s="82" t="str">
+      <c r="D195" s="76" t="str">
         <f t="shared" ref="D195:D245" si="3">LEFT(C195,1)</f>
         <v>M</v>
       </c>
-      <c r="E195" s="82"/>
-      <c r="F195" s="82"/>
-      <c r="G195" s="81"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="80">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="73">
         <v>16</v>
       </c>
-      <c r="B196" s="81">
+      <c r="B196" s="75">
         <v>0.11774313130357261</v>
       </c>
-      <c r="C196" s="80" t="s">
+      <c r="C196" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D196" s="82" t="str">
+      <c r="D196" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E196" s="82"/>
-      <c r="F196" s="82"/>
-      <c r="G196" s="81"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="80">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="73">
         <v>89</v>
       </c>
-      <c r="B197" s="81">
+      <c r="B197" s="75">
         <v>2.7985865145541244E-2</v>
       </c>
-      <c r="C197" s="80" t="s">
+      <c r="C197" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D197" s="82" t="str">
+      <c r="D197" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E197" s="82"/>
-      <c r="F197" s="82"/>
-      <c r="G197" s="81"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="80">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="73">
         <v>145</v>
       </c>
-      <c r="B198" s="81">
+      <c r="B198" s="75">
         <v>1.930267923810669E-2</v>
       </c>
-      <c r="C198" s="80" t="s">
+      <c r="C198" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D198" s="82" t="str">
+      <c r="D198" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="81"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="80">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="73">
         <v>39</v>
       </c>
-      <c r="B199" s="81">
+      <c r="B199" s="75">
         <v>0.12640483396938162</v>
       </c>
-      <c r="C199" s="80" t="s">
+      <c r="C199" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D199" s="82" t="str">
+      <c r="D199" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E199" s="82"/>
-      <c r="F199" s="82"/>
-      <c r="G199" s="81"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="80">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="73">
         <v>209</v>
       </c>
-      <c r="B200" s="81">
+      <c r="B200" s="75">
         <v>0.18454586860246724</v>
       </c>
-      <c r="C200" s="80" t="s">
+      <c r="C200" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D200" s="82" t="str">
+      <c r="D200" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="81"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="80">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="73">
         <v>165</v>
       </c>
-      <c r="B201" s="81">
+      <c r="B201" s="75">
         <v>9.3271432723572412E-2</v>
       </c>
-      <c r="C201" s="80" t="s">
+      <c r="C201" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D201" s="82" t="str">
+      <c r="D201" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E201" s="82"/>
-      <c r="F201" s="82"/>
-      <c r="G201" s="81"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="80">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="73">
         <v>168</v>
       </c>
-      <c r="B202" s="81">
+      <c r="B202" s="75">
         <v>4.0821380580972733E-2</v>
       </c>
-      <c r="C202" s="80" t="s">
+      <c r="C202" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D202" s="82" t="str">
+      <c r="D202" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E202" s="82"/>
-      <c r="F202" s="82"/>
-      <c r="G202" s="81"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="80">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="73">
         <v>199</v>
       </c>
-      <c r="B203" s="81">
+      <c r="B203" s="75">
         <v>1.4077342695807515E-2</v>
       </c>
-      <c r="C203" s="80" t="s">
+      <c r="C203" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D203" s="82" t="str">
+      <c r="D203" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E203" s="82"/>
-      <c r="F203" s="82"/>
-      <c r="G203" s="81"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="80">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="73">
         <v>156</v>
       </c>
-      <c r="B204" s="81">
+      <c r="B204" s="75">
         <v>6.4926061989705408E-2</v>
       </c>
-      <c r="C204" s="80" t="s">
+      <c r="C204" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D204" s="82" t="str">
+      <c r="D204" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E204" s="82"/>
-      <c r="F204" s="82"/>
-      <c r="G204" s="81"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="80">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="73">
         <v>197</v>
       </c>
-      <c r="B205" s="81">
+      <c r="B205" s="75">
         <v>5.0034648569727169E-2</v>
       </c>
-      <c r="C205" s="80" t="s">
+      <c r="C205" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D205" s="82" t="str">
+      <c r="D205" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E205" s="82"/>
-      <c r="F205" s="82"/>
-      <c r="G205" s="81"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="80"/>
-      <c r="B206" s="81">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="75">
         <v>1.213635482753106E-2</v>
       </c>
-      <c r="C206" s="80" t="s">
+      <c r="C206" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="D206" s="82" t="str">
+      <c r="D206" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E206" s="82"/>
-      <c r="F206" s="82"/>
-      <c r="G206" s="81"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="80">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="73">
         <v>18</v>
       </c>
-      <c r="B207" s="81">
+      <c r="B207" s="75">
         <v>1.030161973054855E-2</v>
       </c>
-      <c r="C207" s="80" t="s">
+      <c r="C207" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D207" s="82" t="str">
+      <c r="D207" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E207" s="82"/>
-      <c r="F207" s="82"/>
-      <c r="G207" s="81"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="80">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="73">
         <v>79</v>
       </c>
-      <c r="B208" s="81">
+      <c r="B208" s="75">
         <v>5.6907418691178213E-2</v>
       </c>
-      <c r="C208" s="80" t="s">
+      <c r="C208" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D208" s="82" t="str">
+      <c r="D208" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E208" s="82"/>
-      <c r="F208" s="82"/>
-      <c r="G208" s="81"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="80">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="73">
         <v>90</v>
       </c>
-      <c r="B209" s="81">
+      <c r="B209" s="75">
         <v>3.5181407401038145E-2</v>
       </c>
-      <c r="C209" s="80" t="s">
+      <c r="C209" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D209" s="82" t="str">
+      <c r="D209" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E209" s="82"/>
-      <c r="F209" s="82"/>
-      <c r="G209" s="81"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="80">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="73">
         <v>225</v>
       </c>
-      <c r="B210" s="81">
+      <c r="B210" s="75">
         <v>5.6853855419404131E-2</v>
       </c>
-      <c r="C210" s="80" t="s">
+      <c r="C210" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D210" s="82" t="str">
+      <c r="D210" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E210" s="82"/>
-      <c r="F210" s="82"/>
-      <c r="G210" s="81"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="80">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="73">
         <v>141</v>
       </c>
-      <c r="B211" s="81">
+      <c r="B211" s="75">
         <v>3.3609244567983865E-2</v>
       </c>
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D211" s="82" t="str">
+      <c r="D211" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E211" s="82"/>
-      <c r="F211" s="82"/>
-      <c r="G211" s="81"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="80">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="73">
         <v>82</v>
       </c>
-      <c r="B212" s="81">
+      <c r="B212" s="75">
         <v>1.8816086935060872E-2</v>
       </c>
-      <c r="C212" s="80" t="s">
+      <c r="C212" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D212" s="82" t="str">
+      <c r="D212" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E212" s="82"/>
-      <c r="F212" s="82"/>
-      <c r="G212" s="81"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="80">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="73">
         <v>223</v>
       </c>
-      <c r="B213" s="81">
+      <c r="B213" s="75">
         <v>8.1875220182730191E-2</v>
       </c>
-      <c r="C213" s="80" t="s">
+      <c r="C213" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="D213" s="82" t="str">
+      <c r="D213" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E213" s="82"/>
-      <c r="F213" s="82"/>
-      <c r="G213" s="81"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="80">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="73">
         <v>95</v>
       </c>
-      <c r="B214" s="81">
+      <c r="B214" s="75">
         <v>6.0965587315717995E-2</v>
       </c>
-      <c r="C214" s="80" t="s">
+      <c r="C214" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D214" s="82" t="str">
+      <c r="D214" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E214" s="82"/>
-      <c r="F214" s="82"/>
-      <c r="G214" s="81"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="80">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="73">
         <v>214</v>
       </c>
-      <c r="B215" s="81">
+      <c r="B215" s="75">
         <v>1.8245336971115189E-2</v>
       </c>
-      <c r="C215" s="80" t="s">
+      <c r="C215" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D215" s="82" t="str">
+      <c r="D215" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E215" s="82"/>
-      <c r="F215" s="82"/>
-      <c r="G215" s="81"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="80"/>
-      <c r="B216" s="81">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="75">
         <v>2.5310674064000449E-2</v>
       </c>
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D216" s="82" t="str">
+      <c r="D216" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E216" s="82"/>
-      <c r="F216" s="82"/>
-      <c r="G216" s="81"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="80">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="73">
         <v>146</v>
       </c>
-      <c r="B217" s="81">
+      <c r="B217" s="75">
         <v>1.538871111711082E-2</v>
       </c>
-      <c r="C217" s="80" t="s">
+      <c r="C217" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D217" s="82" t="str">
+      <c r="D217" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E217" s="82"/>
-      <c r="F217" s="82"/>
-      <c r="G217" s="81"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="80">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="73">
         <v>195</v>
       </c>
-      <c r="B218" s="81">
+      <c r="B218" s="75">
         <v>2.2438111683883211E-2</v>
       </c>
-      <c r="C218" s="80" t="s">
+      <c r="C218" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D218" s="82" t="str">
+      <c r="D218" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E218" s="82"/>
-      <c r="F218" s="82"/>
-      <c r="G218" s="81"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="80"/>
-      <c r="B219" s="81">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="75">
         <v>8.1098809534949967E-2</v>
       </c>
-      <c r="C219" s="80" t="s">
+      <c r="C219" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="D219" s="82" t="str">
+      <c r="D219" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E219" s="82"/>
-      <c r="F219" s="82"/>
-      <c r="G219" s="81"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="80">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="73">
         <v>86</v>
       </c>
-      <c r="B220" s="81">
+      <c r="B220" s="75">
         <v>1.1495606985232665E-2</v>
       </c>
-      <c r="C220" s="80" t="s">
+      <c r="C220" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D220" s="82" t="str">
+      <c r="D220" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E220" s="82"/>
-      <c r="F220" s="82"/>
-      <c r="G220" s="81"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="80">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="73">
         <v>138</v>
       </c>
-      <c r="B221" s="81">
+      <c r="B221" s="75">
         <v>1.6764937916182165E-2</v>
       </c>
-      <c r="C221" s="80" t="s">
+      <c r="C221" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D221" s="82" t="str">
+      <c r="D221" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E221" s="82"/>
-      <c r="F221" s="82"/>
-      <c r="G221" s="81"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="80">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="73">
         <v>155</v>
       </c>
-      <c r="B222" s="81">
+      <c r="B222" s="75">
         <v>4.0061406929680965E-2</v>
       </c>
-      <c r="C222" s="80" t="s">
+      <c r="C222" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D222" s="82" t="str">
+      <c r="D222" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E222" s="82"/>
-      <c r="F222" s="82"/>
-      <c r="G222" s="81"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="80">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="73">
         <v>174</v>
       </c>
-      <c r="B223" s="81">
+      <c r="B223" s="75">
         <v>6.1075424246308074E-2</v>
       </c>
-      <c r="C223" s="80" t="s">
+      <c r="C223" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D223" s="82" t="str">
+      <c r="D223" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E223" s="82"/>
-      <c r="F223" s="82"/>
-      <c r="G223" s="81"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="80">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="73">
         <v>206</v>
       </c>
-      <c r="B224" s="81">
+      <c r="B224" s="75">
         <v>3.6736595349580958E-2</v>
       </c>
-      <c r="C224" s="80" t="s">
+      <c r="C224" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D224" s="82" t="str">
+      <c r="D224" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E224" s="82"/>
-      <c r="F224" s="82"/>
-      <c r="G224" s="81"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="80"/>
-      <c r="B225" s="81">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="75">
         <v>4.6951951819540372E-2</v>
       </c>
-      <c r="C225" s="80" t="s">
+      <c r="C225" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D225" s="82" t="str">
+      <c r="D225" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E225" s="82"/>
-      <c r="F225" s="82"/>
-      <c r="G225" s="81"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="80">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="73">
         <v>11</v>
       </c>
-      <c r="B226" s="81">
+      <c r="B226" s="75">
         <v>4.0842500119063208E-2</v>
       </c>
-      <c r="C226" s="80" t="s">
+      <c r="C226" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D226" s="82" t="str">
+      <c r="D226" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E226" s="82"/>
-      <c r="F226" s="82"/>
-      <c r="G226" s="81"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="80">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="73">
         <v>60</v>
       </c>
-      <c r="B227" s="81">
+      <c r="B227" s="75">
         <v>0.13694527892507813</v>
       </c>
-      <c r="C227" s="80" t="s">
+      <c r="C227" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D227" s="82" t="str">
+      <c r="D227" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E227" s="82"/>
-      <c r="F227" s="82"/>
-      <c r="G227" s="81"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="80"/>
-      <c r="B228" s="81">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="75">
         <v>8.9595391673601421E-3</v>
       </c>
-      <c r="C228" s="80" t="s">
+      <c r="C228" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="D228" s="82" t="str">
+      <c r="D228" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E228" s="82"/>
-      <c r="F228" s="82"/>
-      <c r="G228" s="81"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="80">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="73">
         <v>68</v>
       </c>
-      <c r="B229" s="81">
+      <c r="B229" s="75">
         <v>6.9698315586589565E-2</v>
       </c>
-      <c r="C229" s="80" t="s">
+      <c r="C229" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D229" s="82" t="str">
+      <c r="D229" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E229" s="82"/>
-      <c r="F229" s="82"/>
-      <c r="G229" s="81"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="80">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="73">
         <v>216</v>
       </c>
-      <c r="B230" s="81">
+      <c r="B230" s="75">
         <v>2.4953871876508105E-2</v>
       </c>
-      <c r="C230" s="80" t="s">
+      <c r="C230" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="D230" s="82" t="str">
+      <c r="D230" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E230" s="82"/>
-      <c r="F230" s="82"/>
-      <c r="G230" s="81"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="80">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="73">
         <v>25</v>
       </c>
-      <c r="B231" s="81">
+      <c r="B231" s="75">
         <v>0.17272826874479563</v>
       </c>
-      <c r="C231" s="80" t="s">
+      <c r="C231" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D231" s="82" t="str">
+      <c r="D231" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E231" s="82"/>
-      <c r="F231" s="82"/>
-      <c r="G231" s="81"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="80">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="73">
         <v>28</v>
       </c>
-      <c r="B232" s="81">
+      <c r="B232" s="75">
         <v>0.11878837856782754</v>
       </c>
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D232" s="82" t="str">
+      <c r="D232" s="76" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="E232" s="82"/>
-      <c r="F232" s="82"/>
-      <c r="G232" s="81"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="80">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="73">
         <v>66</v>
       </c>
-      <c r="B233" s="81">
+      <c r="B233" s="75">
         <v>7.8566360232681376E-2</v>
       </c>
-      <c r="C233" s="80" t="s">
+      <c r="C233" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D233" s="82" t="str">
+      <c r="D233" s="76" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="E233" s="82"/>
-      <c r="F233" s="82"/>
-      <c r="G233" s="81"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="80"/>
-      <c r="B234" s="81">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="75">
         <v>5.2382052275798729E-2</v>
       </c>
-      <c r="C234" s="80" t="s">
+      <c r="C234" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="D234" s="82" t="str">
+      <c r="D234" s="76" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="E234" s="82"/>
-      <c r="F234" s="82"/>
-      <c r="G234" s="81"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="80"/>
-      <c r="B235" s="81">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="75">
         <v>0.13622293460383728</v>
       </c>
-      <c r="C235" s="80" t="s">
+      <c r="C235" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="D235" s="82" t="str">
+      <c r="D235" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E235" s="82"/>
-      <c r="F235" s="82"/>
-      <c r="G235" s="81"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="80">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="73">
         <v>64</v>
       </c>
-      <c r="B236" s="81">
+      <c r="B236" s="75">
         <v>4.9329777889741799E-2</v>
       </c>
-      <c r="C236" s="80" t="s">
+      <c r="C236" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D236" s="82" t="str">
+      <c r="D236" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E236" s="82"/>
-      <c r="F236" s="82"/>
-      <c r="G236" s="81"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="80">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="73">
         <v>185</v>
       </c>
-      <c r="B237" s="81">
+      <c r="B237" s="75">
         <v>9.780549163327823E-3</v>
       </c>
-      <c r="C237" s="80" t="s">
+      <c r="C237" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D237" s="82" t="str">
+      <c r="D237" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E237" s="82"/>
-      <c r="F237" s="82"/>
-      <c r="G237" s="81"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="80">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="73">
         <v>234</v>
       </c>
-      <c r="B238" s="81">
+      <c r="B238" s="75">
         <v>0.39389792022605385</v>
       </c>
-      <c r="C238" s="80" t="s">
+      <c r="C238" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="D238" s="82" t="str">
+      <c r="D238" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E238" s="82"/>
-      <c r="F238" s="82"/>
-      <c r="G238" s="81"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="80">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="73">
         <v>42</v>
       </c>
-      <c r="B239" s="81">
+      <c r="B239" s="75">
         <v>7.6744621905816879E-2</v>
       </c>
-      <c r="C239" s="80" t="s">
+      <c r="C239" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D239" s="82" t="str">
+      <c r="D239" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E239" s="82"/>
-      <c r="F239" s="82"/>
-      <c r="G239" s="81"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="80">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="73">
         <v>29</v>
       </c>
-      <c r="B240" s="81">
+      <c r="B240" s="75">
         <v>6.1731570773481681E-2</v>
       </c>
-      <c r="C240" s="80" t="s">
+      <c r="C240" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D240" s="82" t="str">
+      <c r="D240" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E240" s="82"/>
-      <c r="F240" s="82"/>
-      <c r="G240" s="81"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="80">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="73">
         <v>45</v>
       </c>
-      <c r="B241" s="81">
+      <c r="B241" s="75">
         <v>0.26653818925170958</v>
       </c>
-      <c r="C241" s="80" t="s">
+      <c r="C241" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D241" s="82" t="str">
+      <c r="D241" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E241" s="82"/>
-      <c r="F241" s="82"/>
-      <c r="G241" s="81"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="80">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="73">
         <v>177</v>
       </c>
-      <c r="B242" s="81">
+      <c r="B242" s="75">
         <v>5.1752661222221885E-2</v>
       </c>
-      <c r="C242" s="80" t="s">
+      <c r="C242" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="D242" s="82" t="str">
+      <c r="D242" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E242" s="82"/>
-      <c r="F242" s="82"/>
-      <c r="G242" s="81"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="80">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="73">
         <v>5</v>
       </c>
-      <c r="B243" s="81">
+      <c r="B243" s="75">
         <v>0.23480231947867436</v>
       </c>
-      <c r="C243" s="80" t="s">
+      <c r="C243" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D243" s="82" t="str">
+      <c r="D243" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E243" s="82"/>
-      <c r="F243" s="82"/>
-      <c r="G243" s="81"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="80">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="73">
         <v>15</v>
       </c>
-      <c r="B244" s="81">
+      <c r="B244" s="75">
         <v>0.23360297591455603</v>
       </c>
-      <c r="C244" s="80" t="s">
+      <c r="C244" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D244" s="82" t="str">
+      <c r="D244" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E244" s="82"/>
-      <c r="F244" s="82"/>
-      <c r="G244" s="81"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="80"/>
-      <c r="B245" s="81">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="75">
         <v>3.2428917355987186E-2</v>
       </c>
-      <c r="C245" s="80" t="s">
+      <c r="C245" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D245" s="82" t="str">
+      <c r="D245" s="76" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="E245" s="82"/>
-      <c r="F245" s="82"/>
-      <c r="G245" s="81"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C245">
